--- a/static/templates/Finance_Resource_Management_Plan.xlsx
+++ b/static/templates/Finance_Resource_Management_Plan.xlsx
@@ -7,8 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instructions &amp; User Guide" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resource Management Plan" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resource Overview" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Detailed Staffing Plan" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resource Timeline" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Skills Matrix" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cost Analysis" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resource Risk Assessment" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28,17 +32,7 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="001F4E78"/>
       <sz val="16"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="001F4E78"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <i val="1"/>
-      <sz val="10"/>
     </font>
     <font>
       <b val="1"/>
@@ -47,10 +41,16 @@
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -59,14 +59,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E7F3FF"/>
-        <bgColor rgb="00E7F3FF"/>
+        <fgColor rgb="002F5597"/>
+        <bgColor rgb="002F5597"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
+        <fgColor rgb="00D9E2F3"/>
+        <bgColor rgb="00D9E2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF99"/>
+        <bgColor rgb="00FFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB366"/>
+        <bgColor rgb="00FFB366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB3B3"/>
+        <bgColor rgb="00FFB3B3"/>
       </patternFill>
     </fill>
   </fills>
@@ -88,20 +112,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,141 +525,550 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="80" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>FINANCE - CORE BANKING SYSTEM MODERNIZATION</t>
+          <t>RESOURCE PLAN &amp; STAFFING PLAN</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Resource Management Plan</t>
+          <t>FINANCE Resource Management Plan Project</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>PMI 2025 Standards Compliant</t>
-        </is>
-      </c>
-    </row>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Generated: July 16, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>DOCUMENT OVERVIEW</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Defines resource allocation and management strategy</t>
-        </is>
-      </c>
-    </row>
-    <row r="7"/>
-    <row r="8"/>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>PROJECT INFORMATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Project Name:</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Enterprise AI/ML Implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Project Manager:</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Sarah Johnson, PMP</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Project Duration:</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>18 months</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>Total Budget:</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>$2,850,000</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>KEY FEATURES</t>
+          <t>Team Size:</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>25 resources (peak)</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>• Resource planning</t>
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>Start Date:</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>January 1, 2025</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>• Team structure</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>• PMI 2025 compliant</t>
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>End Date:</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>June 30, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>RESOURCE SUMMARY BY CATEGORY</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>HOW TO USE THIS TEMPLATE</t>
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Resource Category</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>Total Cost</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>% of Budget</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>Peak Period</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>Critical Skills</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>Risk Level</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>1. Review all tabs</t>
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>$360,000</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>12.6%</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>Months 1-18</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>PMP, Agile, Leadership</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2. Fill in yellow cells</t>
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Business Analysis</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>4320</v>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>$432,000</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>15.2%</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>Months 2-8</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>Requirements, Process</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3. Do not modify formulas</t>
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>Data Science/AI</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>$900,000</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>31.6%</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>Months 4-14</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>ML, Python, Statistics</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4. Use dropdowns</t>
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>5760</v>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>$576,000</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>20.2%</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>Months 6-16</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>Python, APIs, Cloud</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>5. Save regularly</t>
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>4320</v>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>$432,000</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>15.2%</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>Months 3-15</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>ETL, Databases, Cloud</t>
+        </is>
+      </c>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>6. Export to PDF</t>
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Quality Assurance</t>
+        </is>
+      </c>
+      <c r="B21" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>2880</v>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>$216,000</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>Months 8-17</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>Testing, Automation</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>DevOps/Infrastructure</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>2160</v>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>$270,000</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>9.5%</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>Months 5-18</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>Cloud, CI/CD, Security</t>
+        </is>
+      </c>
+      <c r="H22" s="5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>Change Management</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>$180,000</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>Months 10-18</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>Training, Communication</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>Subject Matter Experts</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>$216,000</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>Months 1-18</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="inlineStr">
+        <is>
+          <t>Domain Knowledge</t>
+        </is>
+      </c>
+      <c r="H24" s="5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>TOTALS</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>33480</v>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>$3,582,000</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>125.7%</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A6:F8"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A15:F15"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -621,138 +1080,4576 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>FINANCE - RESOURCE MANAGEMENT PLAN</t>
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>DETAILED STAFFING PLAN</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>Resource Name</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Responsibilities</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>Skills_Required</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>FTE</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>Start_Date</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>End_Date</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>Cost</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>Allocation %</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>Hourly Rate</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="J3" s="6" t="inlineStr">
+        <is>
+          <t>Total Cost</t>
+        </is>
+      </c>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>Skills Required</t>
+        </is>
+      </c>
+      <c r="L3" s="6" t="inlineStr">
+        <is>
+          <t>Experience Level</t>
+        </is>
+      </c>
+      <c r="M3" s="6" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="N3" s="6" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="O3" s="6" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
+      <c r="P3" s="6" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Sarah Johnson</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>Overall project leadership</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>PMP, Banking</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="n">
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>2026-06-30</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>$100</t>
+        </is>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>1800</v>
+      </c>
+      <c r="J4" s="7" t="inlineStr">
+        <is>
+          <t>$180,000</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>PMP, Agile, Leadership</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>Senior</t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="N4" s="5" t="inlineStr">
+        <is>
+          <t>Director PMO</t>
+        </is>
+      </c>
+      <c r="O4" s="5" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="P4" s="5" t="inlineStr">
+        <is>
+          <t>Lead PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Mike Chen</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Scrum Master</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>2026-06-30</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>$90</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>1800</v>
+      </c>
+      <c r="J5" s="7" t="inlineStr">
+        <is>
+          <t>$162,000</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Scrum, Agile, Facilitation</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>Mid-Level</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="N5" s="5" t="inlineStr">
+        <is>
+          <t>Sarah Johnson</t>
+        </is>
+      </c>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>Agile Coach</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Lisa Wang</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Senior Business Analyst</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Business Analysis</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>$85</t>
+        </is>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="J6" s="7" t="inlineStr">
+        <is>
+          <t>$122,400</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Requirements, Process Mapping</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Senior</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Business Director</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Lead BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>David Kim</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Business Analyst</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Business Analysis</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>$75</t>
+        </is>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>1080</v>
+      </c>
+      <c r="J7" s="7" t="inlineStr">
+        <is>
+          <t>$81,000</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>Requirements, Documentation</t>
+        </is>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>Mid-Level</t>
+        </is>
+      </c>
+      <c r="M7" s="5" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="N7" s="5" t="inlineStr">
+        <is>
+          <t>Lisa Wang</t>
+        </is>
+      </c>
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="P7" s="5" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>Jennifer Liu</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Business Analyst</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Business Analysis</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>$75</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>900</v>
+      </c>
+      <c r="J8" s="7" t="inlineStr">
+        <is>
+          <t>$67,500</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>Process Analysis, Testing</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>Mid-Level</t>
+        </is>
+      </c>
+      <c r="M8" s="5" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="N8" s="5" t="inlineStr">
+        <is>
+          <t>Lisa Wang</t>
+        </is>
+      </c>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>Dr. Alex Rodriguez</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Lead Data Scientist</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Data Science/AI</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>$150</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>1800</v>
+      </c>
+      <c r="J9" s="7" t="inlineStr">
+        <is>
+          <t>$270,000</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>ML, Deep Learning, Python</t>
+        </is>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>Expert</t>
+        </is>
+      </c>
+      <c r="M9" s="5" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="N9" s="5" t="inlineStr">
+        <is>
+          <t>CTO</t>
+        </is>
+      </c>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>AI Lead</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Priya Patel</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Data Science/AI</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>$130</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>1800</v>
+      </c>
+      <c r="J10" s="7" t="inlineStr">
+        <is>
+          <t>$234,000</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>ML, Statistics, R/Python</t>
+        </is>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>Senior</t>
+        </is>
+      </c>
+      <c r="M10" s="5" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="N10" s="5" t="inlineStr">
+        <is>
+          <t>Alex Rodriguez</t>
+        </is>
+      </c>
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="P10" s="5" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Data Science/AI</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>$110</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="J11" s="7" t="inlineStr">
+        <is>
+          <t>$158,400</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>ML, Python, Visualization</t>
+        </is>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>Mid-Level</t>
+        </is>
+      </c>
+      <c r="M11" s="5" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="N11" s="5" t="inlineStr">
+        <is>
+          <t>Alex Rodriguez</t>
+        </is>
+      </c>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="P11" s="5" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>Maria Garcia</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>ML Engineer</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Data Science/AI</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>$120</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="J12" s="7" t="inlineStr">
+        <is>
+          <t>$172,800</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>MLOps, Python, Cloud</t>
+        </is>
+      </c>
+      <c r="L12" s="5" t="inlineStr">
+        <is>
+          <t>Senior</t>
+        </is>
+      </c>
+      <c r="M12" s="5" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="N12" s="5" t="inlineStr">
+        <is>
+          <t>Alex Rodriguez</t>
+        </is>
+      </c>
+      <c r="O12" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="P12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>Robert Taylor</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Junior Data Scientist</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Data Science/AI</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>$85</t>
+        </is>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>720</v>
+      </c>
+      <c r="J13" s="7" t="inlineStr">
+        <is>
+          <t>$61,200</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>Python, Statistics, SQL</t>
+        </is>
+      </c>
+      <c r="L13" s="5" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="M13" s="5" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="N13" s="5" t="inlineStr">
+        <is>
+          <t>Alex Rodriguez</t>
+        </is>
+      </c>
+      <c r="O13" s="5" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="P13" s="5" t="inlineStr">
+        <is>
+          <t>Entry Level</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>Kevin Zhang</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Senior Developer</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>2026-04-30</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>$110</t>
+        </is>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>1800</v>
+      </c>
+      <c r="J14" s="7" t="inlineStr">
+        <is>
+          <t>$198,000</t>
+        </is>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>Python, APIs, Microservices</t>
+        </is>
+      </c>
+      <c r="L14" s="5" t="inlineStr">
+        <is>
+          <t>Senior</t>
+        </is>
+      </c>
+      <c r="M14" s="5" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="N14" s="5" t="inlineStr">
+        <is>
+          <t>Tech Lead</t>
+        </is>
+      </c>
+      <c r="O14" s="5" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="P14" s="5" t="inlineStr">
+        <is>
+          <t>Backend Lead</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>Amanda Brown</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>2026-04-30</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>$95</t>
+        </is>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>1800</v>
+      </c>
+      <c r="J15" s="7" t="inlineStr">
+        <is>
+          <t>$171,000</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>React, Python, Databases</t>
+        </is>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>Mid-Level</t>
+        </is>
+      </c>
+      <c r="M15" s="5" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="N15" s="5" t="inlineStr">
+        <is>
+          <t>Kevin Zhang</t>
+        </is>
+      </c>
+      <c r="O15" s="5" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="P15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>Carlos Martinez</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Frontend Developer</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>2026-03-31</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>$85</t>
+        </is>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J16" s="7" t="inlineStr">
+        <is>
+          <t>$102,000</t>
+        </is>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>React, JavaScript, UX</t>
+        </is>
+      </c>
+      <c r="L16" s="5" t="inlineStr">
+        <is>
+          <t>Mid-Level</t>
+        </is>
+      </c>
+      <c r="M16" s="5" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="N16" s="5" t="inlineStr">
+        <is>
+          <t>Kevin Zhang</t>
+        </is>
+      </c>
+      <c r="O16" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="P16" s="5" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Sophie Anderson</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>API Developer</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>$90</t>
+        </is>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>960</v>
+      </c>
+      <c r="J17" s="7" t="inlineStr">
+        <is>
+          <t>$86,400</t>
+        </is>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>REST APIs, Python, Testing</t>
+        </is>
+      </c>
+      <c r="L17" s="5" t="inlineStr">
+        <is>
+          <t>Mid-Level</t>
+        </is>
+      </c>
+      <c r="M17" s="5" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="N17" s="5" t="inlineStr">
+        <is>
+          <t>Kevin Zhang</t>
+        </is>
+      </c>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>Thomas Lee</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Senior Data Engineer</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>2026-03-31</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>$125</t>
+        </is>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>2160</v>
+      </c>
+      <c r="J18" s="7" t="inlineStr">
+        <is>
+          <t>$270,000</t>
+        </is>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>ETL, Spark, Cloud Platforms</t>
+        </is>
+      </c>
+      <c r="L18" s="5" t="inlineStr">
+        <is>
+          <t>Senior</t>
+        </is>
+      </c>
+      <c r="M18" s="5" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="N18" s="5" t="inlineStr">
+        <is>
+          <t>Data Architect</t>
+        </is>
+      </c>
+      <c r="O18" s="5" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="P18" s="5" t="inlineStr">
+        <is>
+          <t>Data Lead</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Rachel Green</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Data Engineer</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>$100</t>
+        </is>
+      </c>
+      <c r="I19" s="7" t="n">
+        <v>1800</v>
+      </c>
+      <c r="J19" s="7" t="inlineStr">
+        <is>
+          <t>$180,000</t>
+        </is>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>SQL, Python, Data Pipelines</t>
+        </is>
+      </c>
+      <c r="L19" s="5" t="inlineStr">
+        <is>
+          <t>Mid-Level</t>
+        </is>
+      </c>
+      <c r="M19" s="5" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="N19" s="5" t="inlineStr">
+        <is>
+          <t>Thomas Lee</t>
+        </is>
+      </c>
+      <c r="O19" s="5" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="P19" s="5" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>Daniel Park</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Cloud Data Engineer</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t>$105</t>
+        </is>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J20" s="7" t="inlineStr">
+        <is>
+          <t>$126,000</t>
+        </is>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>AWS, Databricks, Kafka</t>
+        </is>
+      </c>
+      <c r="L20" s="5" t="inlineStr">
+        <is>
+          <t>Mid-Level</t>
+        </is>
+      </c>
+      <c r="M20" s="5" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="N20" s="5" t="inlineStr">
+        <is>
+          <t>Thomas Lee</t>
+        </is>
+      </c>
+      <c r="O20" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="P20" s="5" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>QA Lead</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>Quality Assurance</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>2026-05-31</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>$95</t>
+        </is>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>1800</v>
+      </c>
+      <c r="J21" s="7" t="inlineStr">
+        <is>
+          <t>$171,000</t>
+        </is>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>Test Automation, Selenium</t>
+        </is>
+      </c>
+      <c r="L21" s="5" t="inlineStr">
+        <is>
+          <t>Senior</t>
+        </is>
+      </c>
+      <c r="M21" s="5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="N21" s="5" t="inlineStr">
+        <is>
+          <t>QA Manager</t>
+        </is>
+      </c>
+      <c r="O21" s="5" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="P21" s="5" t="inlineStr">
+        <is>
+          <t>QA Lead</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>Michael Johnson</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>Quality Assurance</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>2026-04-30</t>
+        </is>
+      </c>
+      <c r="H22" s="5" t="inlineStr">
+        <is>
+          <t>$75</t>
+        </is>
+      </c>
+      <c r="I22" s="7" t="n">
+        <v>1080</v>
+      </c>
+      <c r="J22" s="7" t="inlineStr">
+        <is>
+          <t>$81,000</t>
+        </is>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>Manual Testing, API Testing</t>
+        </is>
+      </c>
+      <c r="L22" s="5" t="inlineStr">
+        <is>
+          <t>Mid-Level</t>
+        </is>
+      </c>
+      <c r="M22" s="5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="N22" s="5" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
+      <c r="O22" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="P22" s="5" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>Chris Wilson</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>DevOps/Infrastructure</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>2026-06-30</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="inlineStr">
+        <is>
+          <t>$115</t>
+        </is>
+      </c>
+      <c r="I23" s="7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="J23" s="7" t="inlineStr">
+        <is>
+          <t>$165,600</t>
+        </is>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>AWS, Docker, Kubernetes</t>
+        </is>
+      </c>
+      <c r="L23" s="5" t="inlineStr">
+        <is>
+          <t>Senior</t>
+        </is>
+      </c>
+      <c r="M23" s="5" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="N23" s="5" t="inlineStr">
+        <is>
+          <t>Infrastructure Lead</t>
+        </is>
+      </c>
+      <c r="O23" s="5" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="P23" s="5" t="inlineStr">
+        <is>
+          <t>DevOps Lead</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>Jessica Miller</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Cloud Engineer</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>DevOps/Infrastructure</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="inlineStr">
+        <is>
+          <t>2026-05-31</t>
+        </is>
+      </c>
+      <c r="H24" s="5" t="inlineStr">
+        <is>
+          <t>$100</t>
+        </is>
+      </c>
+      <c r="I24" s="7" t="n">
+        <v>1080</v>
+      </c>
+      <c r="J24" s="7" t="inlineStr">
+        <is>
+          <t>$108,000</t>
+        </is>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>Cloud Security, CI/CD</t>
+        </is>
+      </c>
+      <c r="L24" s="5" t="inlineStr">
+        <is>
+          <t>Mid-Level</t>
+        </is>
+      </c>
+      <c r="M24" s="5" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="N24" s="5" t="inlineStr">
+        <is>
+          <t>Chris Wilson</t>
+        </is>
+      </c>
+      <c r="O24" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="P24" s="5" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>Mark Thompson</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>Change Manager</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>Change Management</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>2026-06-30</t>
+        </is>
+      </c>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>$90</t>
+        </is>
+      </c>
+      <c r="I25" s="7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="J25" s="7" t="inlineStr">
+        <is>
+          <t>$129,600</t>
+        </is>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>Change Management, Training</t>
+        </is>
+      </c>
+      <c r="L25" s="5" t="inlineStr">
+        <is>
+          <t>Senior</t>
+        </is>
+      </c>
+      <c r="M25" s="5" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="N25" s="5" t="inlineStr">
+        <is>
+          <t>HR Director</t>
+        </is>
+      </c>
+      <c r="O25" s="5" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="P25" s="5" t="inlineStr">
+        <is>
+          <t>Change Lead</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>Laura White</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>Training Specialist</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>Change Management</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="E26" s="7" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>2026-06-30</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>$70</t>
+        </is>
+      </c>
+      <c r="I26" s="7" t="n">
+        <v>720</v>
+      </c>
+      <c r="J26" s="7" t="inlineStr">
+        <is>
+          <t>$50,400</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>Training Design, Facilitation</t>
+        </is>
+      </c>
+      <c r="L26" s="5" t="inlineStr">
+        <is>
+          <t>Mid-Level</t>
+        </is>
+      </c>
+      <c r="M26" s="5" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="N26" s="5" t="inlineStr">
+        <is>
+          <t>Mark Thompson</t>
+        </is>
+      </c>
+      <c r="O26" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="P26" s="5" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>Dr. Susan Clark</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>Business SME</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>Subject Matter Experts</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>2026-06-30</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>$150</t>
+        </is>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>450</v>
+      </c>
+      <c r="J27" s="7" t="inlineStr">
+        <is>
+          <t>$67,500</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>Domain Expertise, Strategy</t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
+        <is>
+          <t>Expert</t>
+        </is>
+      </c>
+      <c r="M27" s="5" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="N27" s="5" t="inlineStr">
+        <is>
+          <t>Business Director</t>
+        </is>
+      </c>
+      <c r="O27" s="5" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="P27" s="5" t="inlineStr">
+        <is>
+          <t>Strategy SME</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>John Martinez</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>Technical SME</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>Subject Matter Experts</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E28" s="7" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>2026-04-30</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>$130</t>
+        </is>
+      </c>
+      <c r="I28" s="7" t="n">
+        <v>390</v>
+      </c>
+      <c r="J28" s="7" t="inlineStr">
+        <is>
+          <t>$50,700</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>Architecture, Integration</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
+        <is>
+          <t>Expert</t>
+        </is>
+      </c>
+      <c r="M28" s="5" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="N28" s="5" t="inlineStr">
+        <is>
+          <t>CTO</t>
+        </is>
+      </c>
+      <c r="O28" s="5" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="P28" s="5" t="inlineStr">
+        <is>
+          <t>Tech SME</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>Patricia Lewis</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>Data SME</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>Subject Matter Experts</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>$120</t>
+        </is>
+      </c>
+      <c r="I29" s="7" t="n">
+        <v>300</v>
+      </c>
+      <c r="J29" s="7" t="inlineStr">
+        <is>
+          <t>$36,000</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>Data Governance, Quality</t>
+        </is>
+      </c>
+      <c r="L29" s="5" t="inlineStr">
+        <is>
+          <t>Expert</t>
+        </is>
+      </c>
+      <c r="M29" s="5" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="N29" s="5" t="inlineStr">
+        <is>
+          <t>Data Director</t>
+        </is>
+      </c>
+      <c r="O29" s="5" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="P29" s="5" t="inlineStr">
+        <is>
+          <t>Data SME</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>Robert Hall</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>Security SME</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>Subject Matter Experts</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E30" s="7" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>2026-03-31</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>$140</t>
+        </is>
+      </c>
+      <c r="I30" s="7" t="n">
+        <v>300</v>
+      </c>
+      <c r="J30" s="7" t="inlineStr">
+        <is>
+          <t>$42,000</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>Cybersecurity, Compliance</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
+        <is>
+          <t>Expert</t>
+        </is>
+      </c>
+      <c r="M30" s="5" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="N30" s="5" t="inlineStr">
+        <is>
+          <t>CISO</t>
+        </is>
+      </c>
+      <c r="O30" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="P30" s="5" t="inlineStr">
+        <is>
+          <t>Security SME</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation sqref="O4:O30" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Confirmed,Pending,Open,On Hold,Cancelled"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="18" max="18"/>
+    <col width="8" customWidth="1" min="19" max="19"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>RESOURCE ALLOCATION TIMELINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>Resource Name</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>2025-01</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>2025-02</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>2025-03</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>2025-06</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="J3" s="6" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="L3" s="6" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="M3" s="6" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="N3" s="6" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="O3" s="6" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="P3" s="6" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="Q3" s="6" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="R3" s="6" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="S3" s="6" t="inlineStr">
+        <is>
+          <t>2026-05</t>
+        </is>
+      </c>
+      <c r="T3" s="6" t="inlineStr">
+        <is>
+          <t>2026-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>Sarah Johnson</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E4" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F4" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G4" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H4" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I4" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J4" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K4" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L4" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M4" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N4" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O4" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P4" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q4" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="R4" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S4" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="T4" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>Dr. Alex Rodriguez</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Lead Data Scientist</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr"/>
+      <c r="D5" s="7" t="inlineStr"/>
+      <c r="E5" s="7" t="inlineStr"/>
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G5" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H5" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I5" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J5" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K5" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L5" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M5" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N5" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O5" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P5" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q5" s="7" t="inlineStr"/>
+      <c r="R5" s="7" t="inlineStr"/>
+      <c r="S5" s="7" t="inlineStr"/>
+      <c r="T5" s="7" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>Kevin Zhang</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>Senior Developer</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="inlineStr"/>
+      <c r="D6" s="7" t="inlineStr"/>
+      <c r="E6" s="7" t="inlineStr"/>
+      <c r="F6" s="7" t="inlineStr"/>
+      <c r="G6" s="7" t="inlineStr"/>
+      <c r="H6" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I6" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J6" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K6" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L6" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M6" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N6" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O6" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P6" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q6" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="R6" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S6" s="7" t="inlineStr"/>
+      <c r="T6" s="7" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>Thomas Lee</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>Senior Data Engineer</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr"/>
+      <c r="D7" s="7" t="inlineStr"/>
+      <c r="E7" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F7" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G7" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H7" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I7" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J7" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K7" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L7" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M7" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N7" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O7" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P7" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q7" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="R7" s="7" t="inlineStr"/>
+      <c r="S7" s="7" t="inlineStr"/>
+      <c r="T7" s="7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>QA Lead</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K8" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L8" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M8" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N8" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O8" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P8" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q8" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="R8" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S8" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="T8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>Chris Wilson</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J9" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K9" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L9" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M9" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N9" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O9" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P9" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q9" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="R9" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S9" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="T9" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>Mark Thompson</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Change Manager</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+      <c r="K10" s="7" t="inlineStr"/>
+      <c r="L10" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M10" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N10" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O10" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P10" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q10" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="R10" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S10" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="T10" s="10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="inlineStr">
+        <is>
+          <t>LEGEND:</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>100% Allocation</t>
+        </is>
+      </c>
+      <c r="B13" s="12" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>75% Allocation</t>
+        </is>
+      </c>
+      <c r="B14" s="13" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>50% Allocation</t>
+        </is>
+      </c>
+      <c r="B15" s="14" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>SKILLS MATRIX &amp; COMPETENCY ASSESSMENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>Resource Name</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>Python/R</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Cloud Platforms</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>Business Analysis</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="inlineStr">
+        <is>
+          <t>Testing/QA</t>
+        </is>
+      </c>
+      <c r="J3" s="6" t="inlineStr">
+        <is>
+          <t>DevOps</t>
+        </is>
+      </c>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
+      <c r="L3" s="6" t="inlineStr">
+        <is>
+          <t>Communication</t>
+        </is>
+      </c>
+      <c r="M3" s="6" t="inlineStr">
+        <is>
+          <t>Overall Rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>Sarah Johnson</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="C4" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>2026-06-30</t>
-        </is>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>150000</v>
-      </c>
-      <c r="H4" s="8" t="inlineStr">
-        <is>
-          <t>Assigned</t>
-        </is>
+      <c r="F4" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" s="7" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Technical Lead</t>
-        </is>
-      </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>Technical architecture</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>Banking systems</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="n">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>Dr. Alex Rodriguez</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Lead Data Scientist</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" s="7" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>Kevin Zhang</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>Senior Developer</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" s="7" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>Thomas Lee</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>Senior Data Engineer</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" s="7" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>QA Lead</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" s="7" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>Chris Wilson</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>Mark Thompson</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Change Manager</t>
+        </is>
+      </c>
+      <c r="C10" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>2026-06-30</t>
-        </is>
-      </c>
-      <c r="G5" s="8" t="n">
-        <v>140000</v>
-      </c>
-      <c r="H5" s="8" t="inlineStr">
-        <is>
-          <t>Assigned</t>
-        </is>
-      </c>
+      <c r="D10" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" s="7" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="inlineStr">
+        <is>
+          <t>SKILL LEVEL LEGEND:</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5 = Expert</t>
+        </is>
+      </c>
+      <c r="B13" s="12" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4 = Advanced</t>
+        </is>
+      </c>
+      <c r="B14" s="12" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3 = Intermediate</t>
+        </is>
+      </c>
+      <c r="B15" s="13" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2 = Basic</t>
+        </is>
+      </c>
+      <c r="B16" s="14" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1 = Beginner</t>
+        </is>
+      </c>
+      <c r="B17" s="18" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>RESOURCE COST ANALYSIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>Cost Category</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>Q1 2025</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>Q2 2025</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Q3 2025</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>Q4 2025</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Q1 2026</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>Q2 2026</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>Total Cost</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="inlineStr">
+        <is>
+          <t>% of Total</t>
+        </is>
+      </c>
+      <c r="J3" s="6" t="inlineStr">
+        <is>
+          <t>Budget Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>$90,000</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>$90,000</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>$90,000</t>
+        </is>
+      </c>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>$90,000</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="inlineStr">
+        <is>
+          <t>$90,000</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>$90,000</t>
+        </is>
+      </c>
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>$540,000</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>15.1%</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>On Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Business Analysis</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>$108,000</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>$162,000</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>$162,000</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="F5" s="7" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>$432,000</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>12.1%</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>On Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Data Science/AI</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>$135,000</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>$270,000</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>$270,000</t>
+        </is>
+      </c>
+      <c r="F6" s="7" t="inlineStr">
+        <is>
+          <t>$270,000</t>
+        </is>
+      </c>
+      <c r="G6" s="7" t="inlineStr">
+        <is>
+          <t>$135,000</t>
+        </is>
+      </c>
+      <c r="H6" s="7" t="inlineStr">
+        <is>
+          <t>$1,080,000</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>30.1%</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>On Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>$144,000</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>$216,000</t>
+        </is>
+      </c>
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>$216,000</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>$144,000</t>
+        </is>
+      </c>
+      <c r="H7" s="7" t="inlineStr">
+        <is>
+          <t>$720,000</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>20.1%</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>On Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>$90,000</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>$135,000</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>$180,000</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>$180,000</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>$135,000</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>$90,000</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>$810,000</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>22.6%</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>On Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>Quality Assurance</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>$54,000</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>$81,000</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr">
+        <is>
+          <t>$81,000</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>$54,000</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr">
+        <is>
+          <t>$270,000</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>On Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>DevOps/Infrastructure</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>$67,500</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>$90,000</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>$90,000</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <t>$90,000</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr">
+        <is>
+          <t>$90,000</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr">
+        <is>
+          <t>$427,500</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>11.9%</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>On Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>Change Management</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>$45,000</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr">
+        <is>
+          <t>$67,500</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr">
+        <is>
+          <t>$67,500</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr">
+        <is>
+          <t>$180,000</t>
+        </is>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>On Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>Subject Matter Experts</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>$54,000</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>$54,000</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>$54,000</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>$54,000</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr">
+        <is>
+          <t>$54,000</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr">
+        <is>
+          <t>$54,000</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr">
+        <is>
+          <t>$324,000</t>
+        </is>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>9.0%</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>On Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="inlineStr">
+        <is>
+          <t>TOTALS</t>
+        </is>
+      </c>
+      <c r="B13" s="20" t="inlineStr">
+        <is>
+          <t>$342,000</t>
+        </is>
+      </c>
+      <c r="C13" s="20" t="inlineStr">
+        <is>
+          <t>$643,500</t>
+        </is>
+      </c>
+      <c r="D13" s="20" t="inlineStr">
+        <is>
+          <t>$1,044,000</t>
+        </is>
+      </c>
+      <c r="E13" s="20" t="inlineStr">
+        <is>
+          <t>$1,026,000</t>
+        </is>
+      </c>
+      <c r="F13" s="20" t="inlineStr">
+        <is>
+          <t>$1,003,500</t>
+        </is>
+      </c>
+      <c r="G13" s="20" t="inlineStr">
+        <is>
+          <t>$724,500</t>
+        </is>
+      </c>
+      <c r="H13" s="20" t="inlineStr">
+        <is>
+          <t>$4,783,500</t>
+        </is>
+      </c>
+      <c r="I13" s="20" t="inlineStr">
+        <is>
+          <t>133.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>BUDGET VARIANCE ANALYSIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>Approved Budget:</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>$3,600,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>Planned Cost:</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>$4,783,500</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>Variance:</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>$1,183,500</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>Variance %:</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>32.9% Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>Risk Level:</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>High - Requires Mitigation</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A16:J16"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>RESOURCE RISK ASSESSMENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>Risk Category</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>Risk Description</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>Risk Score</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Mitigation Strategy</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Availability</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Key data scientists not available when needed</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E4" s="21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>Backup resources identified</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>Sarah Johnson</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Skills Gap</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Team lacks required ML expertise</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E5" s="22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Training and external consultants</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Alex Rodriguez</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Mitigated</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Retention</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>High-demand skills may leave project</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E6" s="22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Competitive compensation, engagement</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>HR Manager</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Budget</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Resource costs exceed approved budget</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E7" s="23" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Cost optimization, scope adjustment</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Sarah Johnson</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>Timeline</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Resource ramp-up delays project timeline</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E8" s="22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>Early recruitment, overlap planning</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>Sarah Johnson</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Remote work impacts collaboration</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E9" s="24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>Collaboration tools, regular meetings</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>Team Leads</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>Mitigated</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Dependencies</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>External SMEs not available</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E10" s="22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>Alternative experts identified</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>Sarah Johnson</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Insufficient QA resources for quality</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E11" s="22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>Additional QA resources, automation</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>Mitigated</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="inlineStr">
+        <is>
+          <t>RISK SCORE LEGEND:</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>8-9 = Critical Risk</t>
+        </is>
+      </c>
+      <c r="B15" s="18" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>6-7 = High Risk</t>
+        </is>
+      </c>
+      <c r="B16" s="14" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4-5 = Medium Risk</t>
+        </is>
+      </c>
+      <c r="B17" s="13" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1-3 = Low Risk</t>
+        </is>
+      </c>
+      <c r="B18" s="12" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
